--- a/src/main/resources/excel/Intellij.xlsx
+++ b/src/main/resources/excel/Intellij.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="47"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Appearence2" sheetId="1" state="visible" r:id="rId2"/>
@@ -3938,7 +3938,7 @@
       <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="53.91"/>
   </cols>
@@ -4085,7 +4085,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4229,7 +4229,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="55.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="59.47"/>
@@ -4533,7 +4533,7 @@
       <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4669,7 +4669,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.46"/>
@@ -4817,7 +4817,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.12"/>
@@ -5081,7 +5081,7 @@
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5209,7 +5209,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5353,7 +5353,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="51.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.01"/>
@@ -5613,7 +5613,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5693,7 +5693,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5837,7 +5837,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="67.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="79.11"/>
@@ -6045,7 +6045,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="61.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="63.56"/>
@@ -6281,7 +6281,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.92"/>
@@ -6365,7 +6365,7 @@
       <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -6525,7 +6525,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="55.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="60.39"/>
@@ -6741,7 +6741,7 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -6797,7 +6797,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="62.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.68"/>
@@ -6957,11 +6957,11 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R49" activeCellId="0" sqref="R49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7105,7 +7105,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7177,7 +7177,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.72"/>
@@ -7325,7 +7325,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="48.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.17"/>
@@ -7557,7 +7557,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.71"/>
@@ -7681,7 +7681,7 @@
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7825,7 +7825,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7969,7 +7969,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="67.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.54"/>
@@ -8237,7 +8237,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8381,7 +8381,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8525,7 +8525,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8669,7 +8669,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="46.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.54"/>
@@ -9057,7 +9057,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9121,7 +9121,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9265,7 +9265,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9409,7 +9409,7 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.35"/>
@@ -9485,7 +9485,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="54.64"/>
@@ -9773,7 +9773,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9877,7 +9877,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10021,7 +10021,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="68.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="68.54"/>
@@ -10269,7 +10269,7 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10317,7 +10317,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.83"/>
@@ -10477,7 +10477,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10525,7 +10525,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="62.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.65"/>
@@ -10681,11 +10681,14 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.42"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10749,7 +10752,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10893,10 +10896,10 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="47.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="47.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11065,7 +11068,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -11209,10 +11212,10 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="51.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="51.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11497,7 +11500,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.87"/>
@@ -11581,7 +11584,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.87"/>
@@ -11713,7 +11716,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -11809,7 +11812,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
